--- a/docs/source/recursos/agricultura/tabla_exclusion_agrie.xlsx
+++ b/docs/source/recursos/agricultura/tabla_exclusion_agrie.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LANCIS\Dropbox (LANCIS)\FOMIX\fmx_estudio_tecnico\diagnostico\talleres\sphinx\docs\source\recursos\agricultura\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8280547F-62DB-4A82-9F94-D9D01DE4696F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F03DD383-F620-411D-88E2-FC8AD2EF4466}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{5620ACDC-EA00-44B4-BE3D-D001DB0C0DC4}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>ID</t>
   </si>
@@ -69,6 +69,9 @@
   </si>
   <si>
     <t>Vegetación halófila hidrófila</t>
+  </si>
+  <si>
+    <t>ND</t>
   </si>
 </sst>
 </file>
@@ -432,7 +435,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection sqref="A1:B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -538,6 +541,12 @@
       <c r="D10" s="3"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>17</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
       <c r="D11" s="3"/>
     </row>
   </sheetData>
